--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931DEC6-C1A4-40B0-872E-10A1AF66C91A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D347828-D7FF-4491-A881-4199AE6C43F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">A$1*1.1</f>
         <v>105.60000000000001</v>
       </c>
       <c r="E4" s="1">
@@ -1986,12 +1986,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>A$1*0.5</f>
-        <v>48</v>
+        <f>A$1*1.1*0.5</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>2592</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="7"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>2832</v>
+        <v>3091.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2030,12 +2030,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">A$1*0.5</f>
-        <v>48</v>
+        <f t="shared" ref="D36:D38" si="9">A$1*1.1*0.5</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>2568</v>
+        <v>2824.8</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="7"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>2818</v>
+        <v>3074.8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2075,11 +2075,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>2544</v>
+        <v>2798.4</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="7"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>2804</v>
+        <v>3058.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>2772</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="7"/>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>2790</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38) )</f>
-        <v>224359</v>
+        <v>225381</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1">
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1">
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D347828-D7FF-4491-A881-4199AE6C43F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941B30B-21E8-44DB-B3C0-62E0BC1FBCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,9 +99,6 @@
     <t>Орлов</t>
   </si>
   <si>
-    <t>Раин</t>
-  </si>
-  <si>
     <t>Редькин</t>
   </si>
   <si>
@@ -144,9 +150,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м.</t>
-  </si>
-  <si>
     <t>Сумма, руб</t>
   </si>
   <si>
@@ -178,6 +181,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Фатима</t>
   </si>
 </sst>
 </file>
@@ -520,21 +529,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="39" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,34 +551,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -609,7 +618,7 @@
         <v>7392.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -653,7 +662,7 @@
         <v>7339.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -697,7 +706,7 @@
         <v>7286.4000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -741,7 +750,7 @@
         <v>7233.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -785,7 +794,7 @@
         <v>7180.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -829,7 +838,7 @@
         <v>7128.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -873,7 +882,7 @@
         <v>7075.2000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -917,7 +926,7 @@
         <v>7022.4000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -961,7 +970,7 @@
         <v>6969.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1005,7 +1014,7 @@
         <v>6926.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1049,7 +1058,7 @@
         <v>6884.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1093,7 +1102,7 @@
         <v>6841.2000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1137,7 +1146,7 @@
         <v>6798.4000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1181,7 +1190,7 @@
         <v>6755.6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1225,7 +1234,7 @@
         <v>6712.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1269,7 +1278,7 @@
         <v>6670.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1313,7 +1322,7 @@
         <v>6627.2000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1357,7 +1366,7 @@
         <v>6584.4000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1401,13 +1410,13 @@
         <v>6541.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1445,13 +1454,13 @@
         <v>6498.8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1489,13 +1498,13 @@
         <v>6456.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1533,13 +1542,13 @@
         <v>6413.2000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1577,13 +1586,13 @@
         <v>6370.4000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1621,13 +1630,13 @@
         <v>6327.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1665,13 +1674,13 @@
         <v>6284.8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1709,13 +1718,13 @@
         <v>6242.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1753,13 +1762,13 @@
         <v>6199.2000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1797,13 +1806,13 @@
         <v>6156.4000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1841,13 +1850,13 @@
         <v>6113.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1885,13 +1894,13 @@
         <v>6070.8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1929,13 +1938,13 @@
         <v>6028.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1973,13 +1982,13 @@
         <v>5985.2000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f>C34-0.5</f>
@@ -2017,13 +2026,13 @@
         <v>3091.2000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2061,13 +2070,13 @@
         <v>3074.8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f>A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2105,13 +2114,13 @@
         <v>3058.4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2149,36 +2158,36 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38) )</f>
         <v>225381</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941B30B-21E8-44DB-B3C0-62E0BC1FBCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED59A96F-32AE-484A-82F9-4CB71A7B90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Фатима</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -554,28 +554,28 @@
         <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -589,12 +589,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>A$1*1.1</f>
-        <v>105.60000000000001</v>
+        <f>105.6</f>
+        <v>105.6</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>7392.0000000000009</v>
+        <v>7392</v>
       </c>
       <c r="F3" s="3">
         <v>44813</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="K3" s="1">
         <f>E3+J3</f>
-        <v>7392.0000000000009</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -631,12 +631,12 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">A$1*1.1</f>
-        <v>105.60000000000001</v>
+        <f>D3</f>
+        <v>105.6</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
-        <v>7339.2000000000007</v>
+        <f>C4*D4</f>
+        <v>7339.2</v>
       </c>
       <c r="F4" s="3">
         <f>F3</f>
@@ -646,7 +646,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="0">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -654,33 +654,33 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="1">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
-        <v>7339.2000000000007</v>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
+        <v>7339.2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <v>105.6</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>7286.4000000000005</v>
+        <f t="shared" ref="E4:E38" si="6">C5*D5</f>
+        <v>7286.4</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F38" si="7">F4</f>
@@ -690,7 +690,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -698,33 +698,33 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
-        <v>7286.4000000000005</v>
+        <f t="shared" si="2"/>
+        <v>7286.4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>7233.6</v>
+        <f t="shared" si="6"/>
+        <v>7233.5999999999995</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="7"/>
@@ -734,7 +734,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -742,33 +742,33 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
-        <v>7233.6</v>
+        <f t="shared" si="2"/>
+        <v>7233.5999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>7180.8</v>
+        <f t="shared" si="6"/>
+        <v>7180.7999999999993</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="7"/>
@@ -778,7 +778,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -786,33 +786,33 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
-        <v>7180.8</v>
+        <f t="shared" si="2"/>
+        <v>7180.7999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>7128.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>7128</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="7"/>
@@ -822,7 +822,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -830,33 +830,33 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>7128.0000000000009</v>
+        <f t="shared" si="2"/>
+        <v>7128</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>7075.2000000000007</v>
+        <f t="shared" si="6"/>
+        <v>7075.2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="7"/>
@@ -866,7 +866,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -874,33 +874,33 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
-        <v>7075.2000000000007</v>
+        <f t="shared" si="2"/>
+        <v>7075.2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>7022.4000000000005</v>
+        <f t="shared" si="6"/>
+        <v>7022.4</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="7"/>
@@ -910,7 +910,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -918,33 +918,33 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
-        <v>7022.4000000000005</v>
+        <f t="shared" si="2"/>
+        <v>7022.4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>6969.6</v>
+        <f t="shared" si="6"/>
+        <v>6969.5999999999995</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="7"/>
@@ -954,7 +954,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -962,33 +962,33 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
-        <v>6969.6</v>
+        <f t="shared" si="2"/>
+        <v>6969.5999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>6916.8</v>
+        <f t="shared" si="6"/>
+        <v>6916.7999999999993</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="7"/>
@@ -998,7 +998,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1006,33 +1006,33 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>6926.8</v>
+        <f t="shared" si="2"/>
+        <v>6926.7999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>6864.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>6864</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="7"/>
@@ -1042,7 +1042,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1050,33 +1050,33 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>6884.0000000000009</v>
+        <f t="shared" si="2"/>
+        <v>6884</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>6811.2000000000007</v>
+        <f t="shared" si="6"/>
+        <v>6811.2</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="7"/>
@@ -1086,7 +1086,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1094,33 +1094,33 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>6841.2000000000007</v>
+        <f t="shared" si="2"/>
+        <v>6841.2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>6758.4000000000005</v>
+        <f t="shared" si="6"/>
+        <v>6758.4</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="7"/>
@@ -1130,7 +1130,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1138,33 +1138,33 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>6798.4000000000005</v>
+        <f t="shared" si="2"/>
+        <v>6798.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>6705.6</v>
+        <f t="shared" si="6"/>
+        <v>6705.5999999999995</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="7"/>
@@ -1174,7 +1174,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1182,33 +1182,33 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
-        <v>6755.6</v>
+        <f t="shared" si="2"/>
+        <v>6755.5999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>6652.8</v>
+        <f t="shared" si="6"/>
+        <v>6652.7999999999993</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="7"/>
@@ -1218,7 +1218,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1226,33 +1226,33 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
-        <v>6712.8</v>
+        <f t="shared" si="2"/>
+        <v>6712.7999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>6600.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>6600</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="7"/>
@@ -1262,7 +1262,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1270,33 +1270,33 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
-        <v>6670.0000000000009</v>
+        <f t="shared" si="2"/>
+        <v>6670</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>6547.2000000000007</v>
+        <f t="shared" si="6"/>
+        <v>6547.2</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="7"/>
@@ -1306,7 +1306,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1314,33 +1314,33 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
-        <v>6627.2000000000007</v>
+        <f t="shared" si="2"/>
+        <v>6627.2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>6494.4000000000005</v>
+        <f t="shared" si="6"/>
+        <v>6494.4</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="7"/>
@@ -1350,7 +1350,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1358,33 +1358,33 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>6584.4000000000005</v>
+        <f t="shared" si="2"/>
+        <v>6584.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>6441.6</v>
+        <f t="shared" si="6"/>
+        <v>6441.5999999999995</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="7"/>
@@ -1394,7 +1394,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1402,33 +1402,33 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
-        <v>6541.6</v>
+        <f t="shared" si="2"/>
+        <v>6541.5999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>6388.8</v>
+        <f t="shared" si="6"/>
+        <v>6388.7999999999993</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="7"/>
@@ -1438,7 +1438,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1446,33 +1446,33 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>6498.8</v>
+        <f t="shared" si="2"/>
+        <v>6498.7999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>6336.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>6336</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="7"/>
@@ -1482,7 +1482,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1490,33 +1490,33 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
-        <v>6456.0000000000009</v>
+        <f t="shared" si="2"/>
+        <v>6456</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>6283.2000000000007</v>
+        <f t="shared" si="6"/>
+        <v>6283.2</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="7"/>
@@ -1526,7 +1526,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1534,33 +1534,33 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
-        <v>6413.2000000000007</v>
+        <f t="shared" si="2"/>
+        <v>6413.2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>6230.4000000000005</v>
+        <f t="shared" si="6"/>
+        <v>6230.4</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="7"/>
@@ -1570,7 +1570,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1578,33 +1578,33 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>6370.4000000000005</v>
+        <f t="shared" si="2"/>
+        <v>6370.4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>6177.6</v>
+        <f t="shared" si="6"/>
+        <v>6177.5999999999995</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="7"/>
@@ -1614,7 +1614,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1622,33 +1622,33 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
-        <v>6327.6</v>
+        <f t="shared" si="2"/>
+        <v>6327.5999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>6124.8</v>
+        <f t="shared" si="6"/>
+        <v>6124.7999999999993</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="7"/>
@@ -1658,7 +1658,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1666,33 +1666,33 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
-        <v>6284.8</v>
+        <f t="shared" si="2"/>
+        <v>6284.7999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>6072.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>6072</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="7"/>
@@ -1702,7 +1702,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1710,33 +1710,33 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
-        <v>6242.0000000000009</v>
+        <f t="shared" si="2"/>
+        <v>6242</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>6019.2000000000007</v>
+        <f t="shared" si="6"/>
+        <v>6019.2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="7"/>
@@ -1746,7 +1746,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1754,33 +1754,33 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
-        <v>6199.2000000000007</v>
+        <f t="shared" si="2"/>
+        <v>6199.2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>5966.4000000000005</v>
+        <f t="shared" si="6"/>
+        <v>5966.4</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="7"/>
@@ -1790,7 +1790,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1798,33 +1798,33 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
-        <v>6156.4000000000005</v>
+        <f t="shared" si="2"/>
+        <v>6156.4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>5913.6</v>
+        <f t="shared" si="6"/>
+        <v>5913.5999999999995</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="7"/>
@@ -1834,7 +1834,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1842,33 +1842,33 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
-        <v>6113.6</v>
+        <f t="shared" si="2"/>
+        <v>6113.5999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>5860.8</v>
+        <f t="shared" si="6"/>
+        <v>5860.7999999999993</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="7"/>
@@ -1878,7 +1878,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1886,33 +1886,33 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
-        <v>6070.8</v>
+        <f t="shared" si="2"/>
+        <v>6070.7999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>5808.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>5808</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="7"/>
@@ -1922,7 +1922,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1930,33 +1930,33 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
-        <v>6028.0000000000009</v>
+        <f t="shared" si="2"/>
+        <v>6028</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="5"/>
+        <v>105.6</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>5755.2000000000007</v>
+        <f t="shared" si="6"/>
+        <v>5755.2</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="7"/>
@@ -1966,7 +1966,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -1974,17 +1974,17 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
-        <v>5985.2000000000007</v>
+        <f t="shared" si="2"/>
+        <v>5985.2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1995,12 +1995,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>A$1*1.1*0.5</f>
-        <v>52.800000000000004</v>
+        <f>D3/2</f>
+        <v>52.8</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2851.2000000000003</v>
+        <f t="shared" si="6"/>
+        <v>2851.2</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="7"/>
@@ -2010,7 +2010,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2018,33 +2018,33 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>3091.2000000000003</v>
+        <f t="shared" si="2"/>
+        <v>3091.2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">A$1*1.1*0.5</f>
-        <v>52.800000000000004</v>
+        <f t="shared" ref="D36:D38" si="9">D4/2</f>
+        <v>52.8</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>2824.8</v>
+        <f t="shared" si="6"/>
+        <v>2824.7999999999997</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="7"/>
@@ -2054,7 +2054,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2062,12 +2062,12 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>3074.8</v>
+        <f t="shared" si="2"/>
+        <v>3074.7999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2079,16 +2079,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>52.800000000000004</v>
+        <v>52.8</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>2798.4</v>
+        <f t="shared" si="6"/>
+        <v>2798.3999999999996</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="7"/>
@@ -2098,7 +2098,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2106,32 +2106,32 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>3058.4</v>
+        <f t="shared" si="2"/>
+        <v>3058.3999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
-        <v>52.800000000000004</v>
+        <v>52.8</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2772</v>
       </c>
       <c r="F38" s="3">
@@ -2142,7 +2142,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2150,17 +2150,17 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3042</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38) )</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2187,11 +2187,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
-        <v>7392.0000000000009</v>
+        <v>7392</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED59A96F-32AE-484A-82F9-4CB71A7B90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858EC75-F225-4230-9F97-ED516402D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъёмщика</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъемщика</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,34 +548,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -679,7 +679,7 @@
         <v>105.6</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E4:E38" si="6">C5*D5</f>
+        <f t="shared" ref="E5:E38" si="6">C5*D5</f>
         <v>7286.4</v>
       </c>
       <c r="F5" s="3">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -932,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -976,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1020,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1108,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1240,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1284,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1328,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1372,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1460,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1504,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1548,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1592,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1636,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1680,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1724,7 +1724,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1768,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1856,7 +1856,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1900,7 +1900,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1944,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -1988,7 +1988,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f>C34-0.5</f>
@@ -2032,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2076,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2120,7 +2120,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38) )</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858EC75-F225-4230-9F97-ED516402D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADCCE29-D8EB-44C2-A319-D603A1B9C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -186,7 +183,10 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Просрочка, дней.</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -566,16 +566,16 @@
         <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38) )</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADCCE29-D8EB-44C2-A319-D603A1B9C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A72B1C-63AD-48B3-80E3-2D87BEDC3C36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -168,9 +159,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
@@ -187,6 +175,9 @@
   </si>
   <si>
     <t>Просрочка, дней.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней.</t>
   </si>
 </sst>
 </file>
@@ -530,34 +521,34 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="39" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -566,7 +557,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
@@ -578,7 +569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -618,7 +609,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -662,7 +653,7 @@
         <v>7339.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
@@ -706,7 +697,7 @@
         <v>7286.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -750,7 +741,7 @@
         <v>7233.5999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -794,7 +785,7 @@
         <v>7180.7999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -838,7 +829,7 @@
         <v>7128</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -882,7 +873,7 @@
         <v>7075.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -926,7 +917,7 @@
         <v>7022.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -970,7 +961,7 @@
         <v>6969.5999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1014,7 +1005,7 @@
         <v>6926.7999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1058,7 +1049,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1102,7 +1093,7 @@
         <v>6841.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1146,7 +1137,7 @@
         <v>6798.4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1190,7 +1181,7 @@
         <v>6755.5999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1234,7 +1225,7 @@
         <v>6712.7999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1278,7 +1269,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1322,7 +1313,7 @@
         <v>6627.2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1366,7 +1357,7 @@
         <v>6584.4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1410,13 +1401,13 @@
         <v>6541.5999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1454,7 +1445,7 @@
         <v>6498.7999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1498,7 +1489,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -1542,7 +1533,7 @@
         <v>6413.2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -1586,7 +1577,7 @@
         <v>6370.4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -1630,7 +1621,7 @@
         <v>6327.5999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -1674,7 +1665,7 @@
         <v>6284.7999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -1718,7 +1709,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -1762,7 +1753,7 @@
         <v>6199.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -1806,7 +1797,7 @@
         <v>6156.4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -1850,7 +1841,7 @@
         <v>6113.5999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -1894,7 +1885,7 @@
         <v>6070.7999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -1938,7 +1929,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -1982,7 +1973,7 @@
         <v>5985.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2026,7 +2017,7 @@
         <v>3091.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2070,7 +2061,7 @@
         <v>3074.7999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>A36+1</f>
         <v>35</v>
@@ -2114,7 +2105,7 @@
         <v>3058.3999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2158,7 +2149,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2167,7 +2158,7 @@
         <v>225381</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,18 +2167,18 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A72B1C-63AD-48B3-80E3-2D87BEDC3C36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E94A60-21D7-4AF6-BBBA-39BA1D10C39A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Просрочка, дней.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней.</t>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E94A60-21D7-4AF6-BBBA-39BA1D10C39A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE696E6-73BB-4F3B-9C69-0C522AA255D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -557,7 +557,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
@@ -566,7 +566,7 @@
         <v>39</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38) )</f>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE696E6-73BB-4F3B-9C69-0C522AA255D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B6702-8088-4642-ACA0-3F7281433B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -177,7 +186,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Итого, руб.</t>
+    <t>Итого, руб</t>
   </si>
 </sst>
 </file>
@@ -520,21 +529,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="39" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -609,7 +618,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -653,7 +662,7 @@
         <v>7339.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
@@ -697,7 +706,7 @@
         <v>7286.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -741,7 +750,7 @@
         <v>7233.5999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -785,7 +794,7 @@
         <v>7180.7999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -829,7 +838,7 @@
         <v>7128</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -873,7 +882,7 @@
         <v>7075.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -917,7 +926,7 @@
         <v>7022.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -961,7 +970,7 @@
         <v>6969.5999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1005,7 +1014,7 @@
         <v>6926.7999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1049,7 +1058,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1093,7 +1102,7 @@
         <v>6841.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1137,7 +1146,7 @@
         <v>6798.4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1181,7 +1190,7 @@
         <v>6755.5999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1225,7 +1234,7 @@
         <v>6712.7999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1269,7 +1278,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1313,7 +1322,7 @@
         <v>6627.2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1357,7 +1366,7 @@
         <v>6584.4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1401,7 +1410,7 @@
         <v>6541.5999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1445,7 +1454,7 @@
         <v>6498.7999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1489,7 +1498,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -1533,7 +1542,7 @@
         <v>6413.2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -1577,7 +1586,7 @@
         <v>6370.4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -1621,7 +1630,7 @@
         <v>6327.5999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -1665,7 +1674,7 @@
         <v>6284.7999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -1709,7 +1718,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -1753,7 +1762,7 @@
         <v>6199.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -1797,7 +1806,7 @@
         <v>6156.4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -1841,7 +1850,7 @@
         <v>6113.5999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -1885,7 +1894,7 @@
         <v>6070.7999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -1929,7 +1938,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -1973,7 +1982,7 @@
         <v>5985.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2017,7 +2026,7 @@
         <v>3091.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2061,7 +2070,7 @@
         <v>3074.7999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f>A36+1</f>
         <v>35</v>
@@ -2105,7 +2114,7 @@
         <v>3058.3999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2149,7 +2158,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2167,7 @@
         <v>225381</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B6702-8088-4642-ACA0-3F7281433B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D1100-5990-48BB-8B15-B7375CED8384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Итого, руб</t>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D1100-5990-48BB-8B15-B7375CED8384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE8EDD-E8BB-4FF9-AAFD-C362C36EB0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Аминов</t>
   </si>
   <si>
-    <t>Арсланов</t>
-  </si>
-  <si>
     <t>Байков</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Ахмет</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="I30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,34 +548,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -589,12 +589,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>105.6</f>
-        <v>105.6</v>
+        <f>A1*1.1</f>
+        <v>105.60000000000001</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>7392</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="F3" s="3">
         <v>44813</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="K3" s="1">
         <f>E3+J3</f>
-        <v>7392</v>
+        <v>7392.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -632,17 +632,18 @@
       </c>
       <c r="D4" s="1">
         <f>D3</f>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E4" s="1">
         <f>C4*D4</f>
-        <v>7339.2</v>
+        <v>7339.2000000000007</v>
       </c>
       <c r="F4" s="3">
         <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -659,7 +660,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="2">E4+J4</f>
-        <v>7339.2</v>
+        <v>7339.2000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -668,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -676,17 +677,18 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D34" si="5">D4</f>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E38" si="6">C5*D5</f>
-        <v>7286.4</v>
+        <v>7286.4000000000005</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -694,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -703,7 +705,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>7286.4</v>
+        <v>7286.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -712,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -720,17 +722,18 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="6"/>
-        <v>7233.5999999999995</v>
+        <v>7233.6</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -747,7 +750,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>7233.5999999999995</v>
+        <v>7233.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -756,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -764,17 +767,18 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="6"/>
-        <v>7180.7999999999993</v>
+        <v>7180.8</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -782,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -791,7 +795,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>7180.7999999999993</v>
+        <v>7180.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -800,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -808,17 +812,18 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="6"/>
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -826,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -835,7 +840,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>7128</v>
+        <v>7128.0000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -844,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -852,17 +857,18 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="6"/>
-        <v>7075.2</v>
+        <v>7075.2000000000007</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -879,7 +885,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>7075.2</v>
+        <v>7075.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -896,17 +902,18 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="6"/>
-        <v>7022.4</v>
+        <v>7022.4000000000005</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -914,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -923,7 +930,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>7022.4</v>
+        <v>7022.4000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -940,17 +947,18 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="6"/>
-        <v>6969.5999999999995</v>
+        <v>6969.6</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -958,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -967,7 +975,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>6969.5999999999995</v>
+        <v>6969.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -976,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -984,17 +992,18 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="6"/>
-        <v>6916.7999999999993</v>
+        <v>6916.8</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1002,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1011,7 +1020,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>6926.7999999999993</v>
+        <v>6926.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1020,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1028,17 +1037,18 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="6"/>
-        <v>6864</v>
+        <v>6864.0000000000009</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1046,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1055,7 +1065,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>6884</v>
+        <v>6884.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1064,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1072,17 +1082,18 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="6"/>
-        <v>6811.2</v>
+        <v>6811.2000000000007</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1090,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1099,7 +1110,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>6841.2</v>
+        <v>6841.2000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1108,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1116,17 +1127,18 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="6"/>
-        <v>6758.4</v>
+        <v>6758.4000000000005</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1134,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1143,7 +1155,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>6798.4</v>
+        <v>6798.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1152,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1160,17 +1172,18 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="6"/>
-        <v>6705.5999999999995</v>
+        <v>6705.6</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1178,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1187,7 +1200,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>6755.5999999999995</v>
+        <v>6755.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1196,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1204,17 +1217,18 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="6"/>
-        <v>6652.7999999999993</v>
+        <v>6652.8</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1222,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1231,7 +1245,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>6712.7999999999993</v>
+        <v>6712.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1240,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1248,17 +1262,18 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>6600.0000000000009</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1266,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1275,7 +1290,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>6670</v>
+        <v>6670.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1284,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1292,17 +1307,18 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="6"/>
-        <v>6547.2</v>
+        <v>6547.2000000000007</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1310,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1319,7 +1335,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="2"/>
-        <v>6627.2</v>
+        <v>6627.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1328,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1336,17 +1352,18 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="6"/>
-        <v>6494.4</v>
+        <v>6494.4000000000005</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1354,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1363,7 +1380,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>6584.4</v>
+        <v>6584.4000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1372,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1380,17 +1397,18 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="6"/>
-        <v>6441.5999999999995</v>
+        <v>6441.6</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1398,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1407,7 +1425,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
-        <v>6541.5999999999995</v>
+        <v>6541.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1416,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1424,17 +1442,18 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="6"/>
-        <v>6388.7999999999993</v>
+        <v>6388.8</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1442,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1451,7 +1470,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v>6498.7999999999993</v>
+        <v>6498.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1460,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1468,17 +1487,18 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="6"/>
-        <v>6336</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1486,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1495,7 +1515,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>6456</v>
+        <v>6456.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1504,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1512,17 +1532,18 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="6"/>
-        <v>6283.2</v>
+        <v>6283.2000000000007</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1530,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1539,7 +1560,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="2"/>
-        <v>6413.2</v>
+        <v>6413.2000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1548,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1556,17 +1577,18 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="6"/>
-        <v>6230.4</v>
+        <v>6230.4000000000005</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1574,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1583,7 +1605,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="2"/>
-        <v>6370.4</v>
+        <v>6370.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1592,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1600,17 +1622,18 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="6"/>
-        <v>6177.5999999999995</v>
+        <v>6177.6</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1618,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1627,7 +1650,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>6327.5999999999995</v>
+        <v>6327.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1636,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1644,17 +1667,18 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>6124.7999999999993</v>
+        <v>6124.8</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1662,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1671,7 +1695,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>6284.7999999999993</v>
+        <v>6284.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1680,7 +1704,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1688,17 +1712,18 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="6"/>
-        <v>6072</v>
+        <v>6072.0000000000009</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1706,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1715,7 +1740,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>6242</v>
+        <v>6242.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1724,7 +1749,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1732,17 +1757,18 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>6019.2</v>
+        <v>6019.2000000000007</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1750,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1759,7 +1785,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>6199.2</v>
+        <v>6199.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1768,7 +1794,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1776,17 +1802,18 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="6"/>
-        <v>5966.4</v>
+        <v>5966.4000000000005</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1794,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1803,7 +1830,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="2"/>
-        <v>6156.4</v>
+        <v>6156.4000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1812,7 +1839,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1820,17 +1847,18 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="6"/>
-        <v>5913.5999999999995</v>
+        <v>5913.6</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1838,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1847,7 +1875,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>6113.5999999999995</v>
+        <v>6113.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1856,7 +1884,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1864,17 +1892,18 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="6"/>
-        <v>5860.7999999999993</v>
+        <v>5860.8</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1882,7 +1911,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1891,7 +1920,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="2"/>
-        <v>6070.7999999999993</v>
+        <v>6070.8</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1900,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1908,17 +1937,18 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="6"/>
-        <v>5808</v>
+        <v>5808.0000000000009</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1926,7 +1956,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1935,7 +1965,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="2"/>
-        <v>6028</v>
+        <v>6028.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1944,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -1952,17 +1982,18 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="5"/>
-        <v>105.6</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="6"/>
-        <v>5755.2</v>
+        <v>5755.2000000000007</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1970,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1979,7 +2010,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="2"/>
-        <v>5985.2</v>
+        <v>5985.2000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1988,7 +2019,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <f>C34-0.5</f>
@@ -1996,17 +2027,18 @@
       </c>
       <c r="D35" s="1">
         <f>D3/2</f>
-        <v>52.8</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="6"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2014,7 +2046,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2023,7 +2055,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="2"/>
-        <v>3091.2</v>
+        <v>3091.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2032,25 +2064,26 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">D4/2</f>
-        <v>52.8</v>
+        <f>D3/2</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="6"/>
-        <v>2824.7999999999997</v>
+        <v>2824.8</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2058,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2067,7 +2100,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="2"/>
-        <v>3074.7999999999997</v>
+        <v>3074.8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2076,25 +2109,26 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
-        <v>52.8</v>
+        <f>D3/2</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="6"/>
-        <v>2798.3999999999996</v>
+        <v>2798.4</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2102,7 +2136,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2111,7 +2145,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="2"/>
-        <v>3058.3999999999996</v>
+        <v>3058.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2120,15 +2154,15 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
-        <v>52.8</v>
+        <f t="shared" ref="D38" si="10">D37</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="6"/>
@@ -2139,6 +2173,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2146,7 +2181,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2160,16 +2195,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
-        <f>INT(SUM(K3:K38) )</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>225381</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2178,7 +2213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2187,11 +2222,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
-        <v>7392</v>
+        <v>7392.0000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE8EDD-E8BB-4FF9-AAFD-C362C36EB0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B200281-19C8-4487-AB14-8F2DF79A00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,9 @@
     <t>Аминов</t>
   </si>
   <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
     <t>Байков</t>
   </si>
   <si>
@@ -168,9 +171,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Фатима</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -186,7 +186,7 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Ахмет</t>
+    <t>Раин</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -551,28 +551,28 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>49</v>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -849,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -939,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -984,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1074,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1119,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1209,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1254,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1299,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1344,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1389,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1479,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1569,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1614,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1659,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1704,7 +1704,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1749,7 +1749,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1794,7 +1794,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1839,7 +1839,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1884,7 +1884,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1929,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1974,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2019,7 +2019,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f>C34-0.5</f>
@@ -2064,7 +2064,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2154,14 +2154,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38" si="10">D37</f>
+        <f>D3/2</f>
         <v>52.800000000000004</v>
       </c>
       <c r="E38" s="1">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_96.xlsx
+++ b/LR3/table_1_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B200281-19C8-4487-AB14-8F2DF79A00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46229235-7EB2-472F-A868-785CDE8DC04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Сеняшина</t>
   </si>
   <si>
-    <t>Соловьева</t>
-  </si>
-  <si>
     <t>Табаков</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t>Хамидуллин</t>
   </si>
   <si>
-    <t>Черемухин</t>
-  </si>
-  <si>
-    <t>Шайхудинов</t>
-  </si>
-  <si>
     <t>Якубов</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
   </si>
   <si>
     <t>Раин</t>
+  </si>
+  <si>
+    <t>Соловьёва</t>
+  </si>
+  <si>
+    <t>Черёмухин</t>
+  </si>
+  <si>
+    <t>Шайхутдинов</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,34 +548,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1614,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1659,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1704,7 +1704,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1749,7 +1749,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1794,7 +1794,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1839,7 +1839,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1884,7 +1884,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1929,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1974,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2019,7 +2019,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
         <f>C34-0.5</f>
@@ -2064,7 +2064,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2154,7 +2154,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
